--- a/data/women/W_2019_10_Pohar_CEZ.xlsx
+++ b/data/women/W_2019_10_Pohar_CEZ.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB9D2E1-9F86-41FB-A451-C1603F116FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AE554D-86C6-4F6E-A870-F1D3CA7A5E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9288" yWindow="-15960" windowWidth="18624" windowHeight="16392" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2172" yWindow="-9708" windowWidth="23040" windowHeight="7716" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="initiation" sheetId="1" r:id="rId1"/>
-    <sheet name="first_round" sheetId="2" r:id="rId2"/>
-    <sheet name="total_rank" sheetId="3" r:id="rId3"/>
-    <sheet name="pools" sheetId="4" r:id="rId4"/>
-    <sheet name="eliminations" sheetId="5" r:id="rId5"/>
+    <sheet name="total" sheetId="6" r:id="rId1"/>
+    <sheet name="initiation" sheetId="1" r:id="rId2"/>
+    <sheet name="first_round" sheetId="2" r:id="rId3"/>
+    <sheet name="total_rank" sheetId="3" r:id="rId4"/>
+    <sheet name="pools" sheetId="4" r:id="rId5"/>
+    <sheet name="eliminations" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$C$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">total_rank!$A$1:$H$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">first_round!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">total_rank!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">eliminations!$C$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">first_round!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">initiation!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">pools!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">total_rank!$A$1:$H$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">first_round!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">total_rank!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5048" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5464" uniqueCount="131">
   <si>
     <t>PIOVESAN Patrizia</t>
   </si>
@@ -476,6 +478,9 @@
   <si>
     <t>DIVIŠOVÁ, ROZ. JÍLKOVÁ Klára</t>
   </si>
+  <si>
+    <t>Percentil</t>
+  </si>
 </sst>
 </file>
 
@@ -552,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -592,6 +597,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,11 +885,2999 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23271B0D-DEAA-4640-9C3E-77C42658AFAF}">
+  <dimension ref="A1:Q58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="D22:Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="1">
+        <v>37414</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2">
+        <v>27</v>
+      </c>
+      <c r="L2">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="23">
+        <f>P2/MAX($P$2:$P$58)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36161</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3">
+        <v>27</v>
+      </c>
+      <c r="P3">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="23">
+        <f t="shared" ref="Q3:Q58" si="0">P3/MAX($P$2:$P$58)</f>
+        <v>0.59649122807017541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="1">
+        <v>35639</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>27</v>
+      </c>
+      <c r="M4">
+        <v>-7</v>
+      </c>
+      <c r="N4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4">
+        <v>39</v>
+      </c>
+      <c r="P4">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="23">
+        <f t="shared" si="0"/>
+        <v>0.70175438596491224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="1">
+        <v>37371</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="23">
+        <f t="shared" si="0"/>
+        <v>0.2982456140350877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="1">
+        <v>26604</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <v>-11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6">
+        <v>41</v>
+      </c>
+      <c r="P6">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="23">
+        <f t="shared" si="0"/>
+        <v>0.7192982456140351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="1">
+        <v>36994</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7">
+        <v>24</v>
+      </c>
+      <c r="L7">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7">
+        <v>23</v>
+      </c>
+      <c r="P7">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="23">
+        <f t="shared" si="0"/>
+        <v>0.2807017543859649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="1">
+        <v>36617</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>26</v>
+      </c>
+      <c r="L8">
+        <v>19</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8">
+        <v>19</v>
+      </c>
+      <c r="P8">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.19298245614035087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="1">
+        <v>37189</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>34</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>14</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.24561403508771928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="1">
+        <v>37903</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>-4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10">
+        <v>38</v>
+      </c>
+      <c r="P10">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="1">
+        <v>32455</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <v>-8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11">
+        <v>43</v>
+      </c>
+      <c r="P11">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.75438596491228072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="1">
+        <v>33010</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12">
+        <v>22</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="23">
+        <f t="shared" si="0"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="1">
+        <v>37342</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13">
+        <v>-19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13">
+        <v>52</v>
+      </c>
+      <c r="P13">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.91228070175438591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="1">
+        <v>33420</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>29</v>
+      </c>
+      <c r="M14">
+        <v>-9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14">
+        <v>44</v>
+      </c>
+      <c r="P14">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="23">
+        <f t="shared" si="0"/>
+        <v>0.77192982456140347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="1">
+        <v>37384</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15">
+        <v>25</v>
+      </c>
+      <c r="L15">
+        <v>15</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15">
+        <v>16</v>
+      </c>
+      <c r="P15">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="1">
+        <v>33437</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16">
+        <v>23</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>105</v>
+      </c>
+      <c r="O16">
+        <v>26</v>
+      </c>
+      <c r="P16">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.54385964912280704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="1">
+        <v>35888</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+      <c r="M17">
+        <v>-26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17">
+        <v>57</v>
+      </c>
+      <c r="P17">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="1">
+        <v>34858</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18">
+        <v>21</v>
+      </c>
+      <c r="L18">
+        <v>19</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>105</v>
+      </c>
+      <c r="O18">
+        <v>32</v>
+      </c>
+      <c r="P18">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.64912280701754388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="1">
+        <v>37260</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>19</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19">
+        <v>33</v>
+      </c>
+      <c r="P19">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.56140350877192979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="1">
+        <v>37934</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20">
+        <v>28</v>
+      </c>
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="23">
+        <f t="shared" si="0"/>
+        <v>0.17543859649122806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="1">
+        <v>35537</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21">
+        <v>27</v>
+      </c>
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21" t="s">
+        <v>105</v>
+      </c>
+      <c r="O21">
+        <v>18</v>
+      </c>
+      <c r="P21">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="23">
+        <f t="shared" si="0"/>
+        <v>0.49122807017543857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="1">
+        <v>34628</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>30</v>
+      </c>
+      <c r="L22">
+        <v>12</v>
+      </c>
+      <c r="M22">
+        <v>18</v>
+      </c>
+      <c r="N22" t="s">
+        <v>105</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="23">
+        <f t="shared" si="0"/>
+        <v>8.771929824561403E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="1">
+        <v>37177</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <v>-8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O23">
+        <v>40</v>
+      </c>
+      <c r="P23">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="23">
+        <f t="shared" si="0"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="1">
+        <v>36590</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <v>26</v>
+      </c>
+      <c r="L24">
+        <v>18</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24" t="s">
+        <v>105</v>
+      </c>
+      <c r="O24">
+        <v>11</v>
+      </c>
+      <c r="P24">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="23">
+        <f t="shared" si="0"/>
+        <v>0.43859649122807015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="1">
+        <v>36590</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25">
+        <v>26</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25" t="s">
+        <v>105</v>
+      </c>
+      <c r="O25">
+        <v>21</v>
+      </c>
+      <c r="P25">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="23">
+        <f t="shared" si="0"/>
+        <v>0.14035087719298245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="1">
+        <v>35863</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26">
+        <v>15</v>
+      </c>
+      <c r="L26">
+        <v>33</v>
+      </c>
+      <c r="M26">
+        <v>-18</v>
+      </c>
+      <c r="N26" t="s">
+        <v>105</v>
+      </c>
+      <c r="O26">
+        <v>51</v>
+      </c>
+      <c r="P26">
+        <v>51</v>
+      </c>
+      <c r="Q26" s="23">
+        <f t="shared" si="0"/>
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="1">
+        <v>36889</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27">
+        <v>29</v>
+      </c>
+      <c r="L27">
+        <v>22</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27" t="s">
+        <v>105</v>
+      </c>
+      <c r="O27">
+        <v>13</v>
+      </c>
+      <c r="P27">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="23">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="1">
+        <v>26851</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>28</v>
+      </c>
+      <c r="M28">
+        <v>-18</v>
+      </c>
+      <c r="N28" t="s">
+        <v>105</v>
+      </c>
+      <c r="O28">
+        <v>50</v>
+      </c>
+      <c r="P28">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="23">
+        <f t="shared" si="0"/>
+        <v>0.8771929824561403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="1">
+        <v>36887</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29">
+        <v>33</v>
+      </c>
+      <c r="L29">
+        <v>24</v>
+      </c>
+      <c r="M29">
+        <v>9</v>
+      </c>
+      <c r="N29" t="s">
+        <v>105</v>
+      </c>
+      <c r="O29">
+        <v>12</v>
+      </c>
+      <c r="P29">
+        <v>26</v>
+      </c>
+      <c r="Q29" s="23">
+        <f t="shared" si="0"/>
+        <v>0.45614035087719296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="1">
+        <v>35681</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30">
+        <v>14</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>-15</v>
+      </c>
+      <c r="N30" t="s">
+        <v>105</v>
+      </c>
+      <c r="O30">
+        <v>48</v>
+      </c>
+      <c r="P30">
+        <v>48</v>
+      </c>
+      <c r="Q30" s="23">
+        <f t="shared" si="0"/>
+        <v>0.84210526315789469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="1">
+        <v>36091</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31">
+        <v>23</v>
+      </c>
+      <c r="L31">
+        <v>21</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>105</v>
+      </c>
+      <c r="O31">
+        <v>31</v>
+      </c>
+      <c r="P31">
+        <v>36</v>
+      </c>
+      <c r="Q31" s="23">
+        <f t="shared" si="0"/>
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="1">
+        <v>37200</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32">
+        <v>12</v>
+      </c>
+      <c r="L32">
+        <v>29</v>
+      </c>
+      <c r="M32">
+        <v>-17</v>
+      </c>
+      <c r="N32" t="s">
+        <v>105</v>
+      </c>
+      <c r="O32">
+        <v>49</v>
+      </c>
+      <c r="P32">
+        <v>49</v>
+      </c>
+      <c r="Q32" s="23">
+        <f t="shared" si="0"/>
+        <v>0.85964912280701755</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="1">
+        <v>36350</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>29</v>
+      </c>
+      <c r="L33">
+        <v>17</v>
+      </c>
+      <c r="M33">
+        <v>12</v>
+      </c>
+      <c r="N33" t="s">
+        <v>105</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="23">
+        <f t="shared" si="0"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="1">
+        <v>36404</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34">
+        <v>13</v>
+      </c>
+      <c r="L34">
+        <v>27</v>
+      </c>
+      <c r="M34">
+        <v>-14</v>
+      </c>
+      <c r="N34" t="s">
+        <v>105</v>
+      </c>
+      <c r="O34">
+        <v>47</v>
+      </c>
+      <c r="P34">
+        <v>47</v>
+      </c>
+      <c r="Q34" s="23">
+        <f t="shared" si="0"/>
+        <v>0.82456140350877194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="1">
+        <v>38167</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>29</v>
+      </c>
+      <c r="M35">
+        <v>-19</v>
+      </c>
+      <c r="N35" t="s">
+        <v>105</v>
+      </c>
+      <c r="O35">
+        <v>54</v>
+      </c>
+      <c r="P35">
+        <v>54</v>
+      </c>
+      <c r="Q35" s="23">
+        <f t="shared" si="0"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="1">
+        <v>36130</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36">
+        <v>24</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>105</v>
+      </c>
+      <c r="O36">
+        <v>36</v>
+      </c>
+      <c r="P36">
+        <v>38</v>
+      </c>
+      <c r="Q36" s="23">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="1">
+        <v>37862</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37">
+        <v>25</v>
+      </c>
+      <c r="L37">
+        <v>22</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>105</v>
+      </c>
+      <c r="O37">
+        <v>24</v>
+      </c>
+      <c r="P37">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="23">
+        <f t="shared" si="0"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="1">
+        <v>37401</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <v>24</v>
+      </c>
+      <c r="M38">
+        <v>-4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>105</v>
+      </c>
+      <c r="O38">
+        <v>37</v>
+      </c>
+      <c r="P38">
+        <v>39</v>
+      </c>
+      <c r="Q38" s="23">
+        <f t="shared" si="0"/>
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="1">
+        <v>40848</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39">
+        <v>26</v>
+      </c>
+      <c r="L39">
+        <v>21</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>105</v>
+      </c>
+      <c r="O39">
+        <v>35</v>
+      </c>
+      <c r="P39">
+        <v>23</v>
+      </c>
+      <c r="Q39" s="23">
+        <f t="shared" si="0"/>
+        <v>0.40350877192982454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="1">
+        <v>33018</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40">
+        <v>28</v>
+      </c>
+      <c r="L40">
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <v>9</v>
+      </c>
+      <c r="N40" t="s">
+        <v>105</v>
+      </c>
+      <c r="O40">
+        <v>17</v>
+      </c>
+      <c r="P40">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="23">
+        <f t="shared" si="0"/>
+        <v>0.12280701754385964</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" s="1">
+        <v>33326</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>30</v>
+      </c>
+      <c r="L41">
+        <v>11</v>
+      </c>
+      <c r="M41">
+        <v>19</v>
+      </c>
+      <c r="N41" t="s">
+        <v>105</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="23">
+        <f t="shared" si="0"/>
+        <v>1.7543859649122806E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H42" s="1">
+        <v>36319</v>
+      </c>
+      <c r="I42">
+        <v>6</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>29</v>
+      </c>
+      <c r="L42">
+        <v>14</v>
+      </c>
+      <c r="M42">
+        <v>15</v>
+      </c>
+      <c r="N42" t="s">
+        <v>105</v>
+      </c>
+      <c r="O42">
+        <v>4</v>
+      </c>
+      <c r="P42">
+        <v>18</v>
+      </c>
+      <c r="Q42" s="23">
+        <f t="shared" si="0"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="1">
+        <v>36310</v>
+      </c>
+      <c r="I43">
+        <v>6</v>
+      </c>
+      <c r="J43" t="s">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>30</v>
+      </c>
+      <c r="L43">
+        <v>16</v>
+      </c>
+      <c r="M43">
+        <v>14</v>
+      </c>
+      <c r="N43" t="s">
+        <v>105</v>
+      </c>
+      <c r="O43">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <v>13</v>
+      </c>
+      <c r="Q43" s="23">
+        <f t="shared" si="0"/>
+        <v>0.22807017543859648</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44" s="1">
+        <v>37444</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44">
+        <v>27</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <v>10</v>
+      </c>
+      <c r="N44" t="s">
+        <v>105</v>
+      </c>
+      <c r="O44">
+        <v>15</v>
+      </c>
+      <c r="P44">
+        <v>6</v>
+      </c>
+      <c r="Q44" s="23">
+        <f t="shared" si="0"/>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="1">
+        <v>36566</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45">
+        <v>25</v>
+      </c>
+      <c r="L45">
+        <v>22</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>105</v>
+      </c>
+      <c r="O45">
+        <v>24</v>
+      </c>
+      <c r="P45">
+        <v>33</v>
+      </c>
+      <c r="Q45" s="23">
+        <f t="shared" si="0"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="1">
+        <v>36325</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46">
+        <v>28</v>
+      </c>
+      <c r="L46">
+        <v>13</v>
+      </c>
+      <c r="M46">
+        <v>15</v>
+      </c>
+      <c r="N46" t="s">
+        <v>105</v>
+      </c>
+      <c r="O46">
+        <v>9</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="23">
+        <f t="shared" si="0"/>
+        <v>3.5087719298245612E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" s="1">
+        <v>36380</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47">
+        <v>24</v>
+      </c>
+      <c r="L47">
+        <v>20</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>105</v>
+      </c>
+      <c r="O47">
+        <v>29</v>
+      </c>
+      <c r="P47">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="23">
+        <f t="shared" si="0"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" s="1">
+        <v>37597</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48">
+        <v>15</v>
+      </c>
+      <c r="L48">
+        <v>25</v>
+      </c>
+      <c r="M48">
+        <v>-10</v>
+      </c>
+      <c r="N48" t="s">
+        <v>105</v>
+      </c>
+      <c r="O48">
+        <v>45</v>
+      </c>
+      <c r="P48">
+        <v>45</v>
+      </c>
+      <c r="Q48" s="23">
+        <f t="shared" si="0"/>
+        <v>0.78947368421052633</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="1">
+        <v>37575</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>35</v>
+      </c>
+      <c r="M49">
+        <v>-25</v>
+      </c>
+      <c r="N49" t="s">
+        <v>105</v>
+      </c>
+      <c r="O49">
+        <v>56</v>
+      </c>
+      <c r="P49">
+        <v>56</v>
+      </c>
+      <c r="Q49" s="23">
+        <f t="shared" si="0"/>
+        <v>0.98245614035087714</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" s="1">
+        <v>36101</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+      <c r="K50">
+        <v>7</v>
+      </c>
+      <c r="L50">
+        <v>30</v>
+      </c>
+      <c r="M50">
+        <v>-23</v>
+      </c>
+      <c r="N50" t="s">
+        <v>105</v>
+      </c>
+      <c r="O50">
+        <v>55</v>
+      </c>
+      <c r="P50">
+        <v>55</v>
+      </c>
+      <c r="Q50" s="23">
+        <f t="shared" si="0"/>
+        <v>0.96491228070175439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" s="1">
+        <v>34911</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51">
+        <v>34</v>
+      </c>
+      <c r="L51">
+        <v>15</v>
+      </c>
+      <c r="M51">
+        <v>19</v>
+      </c>
+      <c r="N51" t="s">
+        <v>105</v>
+      </c>
+      <c r="O51">
+        <v>7</v>
+      </c>
+      <c r="P51">
+        <v>9</v>
+      </c>
+      <c r="Q51" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="1">
+        <v>38208</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52">
+        <v>17</v>
+      </c>
+      <c r="L52">
+        <v>29</v>
+      </c>
+      <c r="M52">
+        <v>-12</v>
+      </c>
+      <c r="N52" t="s">
+        <v>105</v>
+      </c>
+      <c r="O52">
+        <v>46</v>
+      </c>
+      <c r="P52">
+        <v>46</v>
+      </c>
+      <c r="Q52" s="23">
+        <f t="shared" si="0"/>
+        <v>0.80701754385964908</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" s="1">
+        <v>35707</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K53">
+        <v>24</v>
+      </c>
+      <c r="L53">
+        <v>24</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>105</v>
+      </c>
+      <c r="O53">
+        <v>34</v>
+      </c>
+      <c r="P53">
+        <v>22</v>
+      </c>
+      <c r="Q53" s="23">
+        <f t="shared" si="0"/>
+        <v>0.38596491228070173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54" s="1">
+        <v>36945</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54" t="s">
+        <v>44</v>
+      </c>
+      <c r="K54">
+        <v>27</v>
+      </c>
+      <c r="L54">
+        <v>21</v>
+      </c>
+      <c r="M54">
+        <v>6</v>
+      </c>
+      <c r="N54" t="s">
+        <v>105</v>
+      </c>
+      <c r="O54">
+        <v>28</v>
+      </c>
+      <c r="P54">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="23">
+        <f t="shared" si="0"/>
+        <v>0.35087719298245612</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H55" s="1">
+        <v>37171</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55">
+        <v>26</v>
+      </c>
+      <c r="L55">
+        <v>19</v>
+      </c>
+      <c r="M55">
+        <v>7</v>
+      </c>
+      <c r="N55" t="s">
+        <v>105</v>
+      </c>
+      <c r="O55">
+        <v>19</v>
+      </c>
+      <c r="P55">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="23">
+        <f t="shared" si="0"/>
+        <v>0.50877192982456143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" t="s">
+        <v>117</v>
+      </c>
+      <c r="H56" s="1">
+        <v>37285</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56" t="s">
+        <v>44</v>
+      </c>
+      <c r="K56">
+        <v>25</v>
+      </c>
+      <c r="L56">
+        <v>22</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>105</v>
+      </c>
+      <c r="O56">
+        <v>30</v>
+      </c>
+      <c r="P56">
+        <v>35</v>
+      </c>
+      <c r="Q56" s="23">
+        <f t="shared" si="0"/>
+        <v>0.61403508771929827</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
+        <v>96</v>
+      </c>
+      <c r="H57" s="1">
+        <v>33330</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K57">
+        <v>11</v>
+      </c>
+      <c r="L57">
+        <v>30</v>
+      </c>
+      <c r="M57">
+        <v>-19</v>
+      </c>
+      <c r="N57" t="s">
+        <v>105</v>
+      </c>
+      <c r="O57">
+        <v>52</v>
+      </c>
+      <c r="P57">
+        <v>52</v>
+      </c>
+      <c r="Q57" s="23">
+        <f t="shared" si="0"/>
+        <v>0.91228070175438591</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>96</v>
+      </c>
+      <c r="H58" s="1">
+        <v>38143</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>65</v>
+      </c>
+      <c r="K58">
+        <v>23</v>
+      </c>
+      <c r="L58">
+        <v>28</v>
+      </c>
+      <c r="M58">
+        <v>-5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>105</v>
+      </c>
+      <c r="O58">
+        <v>42</v>
+      </c>
+      <c r="P58">
+        <v>42</v>
+      </c>
+      <c r="Q58" s="23">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{23271B0D-DEAA-4640-9C3E-77C42658AFAF}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1902,12 +4896,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4007899-713B-4950-A6D9-849ADCEAE4AF}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="K1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1964,31 +4958,31 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2">
         <v>11</v>
-      </c>
-      <c r="I2">
-        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>105</v>
@@ -2005,31 +4999,31 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>105</v>
@@ -2046,31 +5040,31 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>96</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I4">
-        <v>18</v>
+        <v>-7</v>
       </c>
       <c r="J4" t="s">
         <v>105</v>
@@ -2087,16 +5081,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -2105,13 +5099,13 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>105</v>
@@ -2128,31 +5122,31 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>96</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I6">
-        <v>14</v>
+        <v>-11</v>
       </c>
       <c r="J6" t="s">
         <v>105</v>
@@ -2169,31 +5163,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
         <v>105</v>
@@ -2210,31 +5204,31 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>96</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I8">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
         <v>105</v>
@@ -2292,10 +5286,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2304,19 +5298,19 @@
         <v>96</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>-4</v>
       </c>
       <c r="J10" t="s">
         <v>105</v>
@@ -2333,31 +5327,31 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>96</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="J11" t="s">
         <v>105</v>
@@ -2374,31 +5368,31 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>96</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
         <v>105</v>
@@ -2415,31 +5409,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="G13">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I13">
-        <v>9</v>
+        <v>-19</v>
       </c>
       <c r="J13" t="s">
         <v>105</v>
@@ -2456,31 +5450,31 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
         <v>29</v>
       </c>
-      <c r="H14">
-        <v>22</v>
-      </c>
       <c r="I14">
-        <v>7</v>
+        <v>-9</v>
       </c>
       <c r="J14" t="s">
         <v>105</v>
@@ -2497,16 +5491,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -2515,13 +5509,13 @@
         <v>26</v>
       </c>
       <c r="G15">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>105</v>
@@ -2538,13 +5532,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>96</v>
@@ -2556,13 +5550,13 @@
         <v>26</v>
       </c>
       <c r="G16">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
         <v>105</v>
@@ -2579,31 +5573,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G17">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>-26</v>
       </c>
       <c r="J17" t="s">
         <v>105</v>
@@ -2620,31 +5614,31 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>96</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G18">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H18">
         <v>19</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>105</v>
@@ -2661,10 +5655,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -2673,19 +5667,19 @@
         <v>96</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G19">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H19">
         <v>19</v>
       </c>
       <c r="I19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>105</v>
@@ -2702,31 +5696,31 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>96</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G20">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
         <v>105</v>
@@ -2743,13 +5737,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
         <v>96</v>
@@ -2761,13 +5755,13 @@
         <v>26</v>
       </c>
       <c r="G21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H21">
         <v>19</v>
       </c>
       <c r="I21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J21" t="s">
         <v>105</v>
@@ -2784,31 +5778,31 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>96</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
         <v>105</v>
@@ -2825,31 +5819,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="G23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="J23" t="s">
         <v>105</v>
@@ -2866,31 +5860,31 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
         <v>26</v>
       </c>
-      <c r="G24">
-        <v>24</v>
-      </c>
       <c r="H24">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J24" t="s">
         <v>105</v>
@@ -2907,13 +5901,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
@@ -2925,13 +5919,13 @@
         <v>26</v>
       </c>
       <c r="G25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J25" t="s">
         <v>105</v>
@@ -2948,31 +5942,31 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="J26" t="s">
         <v>105</v>
@@ -2989,31 +5983,31 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
         <v>96</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G27">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J27" t="s">
         <v>105</v>
@@ -3030,31 +6024,31 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28">
-        <v>4</v>
-      </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="G28">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H28">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="J28" t="s">
         <v>105</v>
@@ -3071,31 +6065,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G29">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J29" t="s">
         <v>105</v>
@@ -3112,31 +6106,31 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G30">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>-15</v>
       </c>
       <c r="J30" t="s">
         <v>105</v>
@@ -3153,16 +6147,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -3171,13 +6165,13 @@
         <v>44</v>
       </c>
       <c r="G31">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>105</v>
@@ -3194,31 +6188,31 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
         <v>96</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G32">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H32">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>-17</v>
       </c>
       <c r="J32" t="s">
         <v>105</v>
@@ -3235,31 +6229,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J33" t="s">
         <v>105</v>
@@ -3276,31 +6270,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
         <v>96</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G34">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H34">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="J34" t="s">
         <v>105</v>
@@ -3317,10 +6311,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -3329,19 +6323,19 @@
         <v>96</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G35">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H35">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="J35" t="s">
         <v>105</v>
@@ -3358,31 +6352,31 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
         <v>96</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G36">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H36">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>105</v>
@@ -3399,31 +6393,31 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
         <v>96</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="G37">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
         <v>105</v>
@@ -3481,31 +6475,31 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
         <v>96</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G39">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H39">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I39">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="J39" t="s">
         <v>105</v>
@@ -3522,31 +6516,31 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
         <v>96</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="G40">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H40">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I40">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="J40" t="s">
         <v>105</v>
@@ -3563,31 +6557,31 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
         <v>2</v>
       </c>
-      <c r="F41" t="s">
-        <v>55</v>
-      </c>
       <c r="G41">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H41">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I41">
-        <v>-8</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s">
         <v>105</v>
@@ -3604,31 +6598,31 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
         <v>2</v>
       </c>
-      <c r="F42" t="s">
-        <v>63</v>
-      </c>
       <c r="G42">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H42">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I42">
-        <v>-11</v>
+        <v>15</v>
       </c>
       <c r="J42" t="s">
         <v>105</v>
@@ -3645,31 +6639,31 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
         <v>96</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H43">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I43">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="J43" t="s">
         <v>105</v>
@@ -3686,31 +6680,31 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
         <v>96</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="G44">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H44">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I44">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="J44" t="s">
         <v>105</v>
@@ -3727,31 +6721,31 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="G45">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H45">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I45">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
         <v>105</v>
@@ -3768,31 +6762,31 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
         <v>96</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G46">
+        <v>28</v>
+      </c>
+      <c r="H46">
+        <v>13</v>
+      </c>
+      <c r="I46">
         <v>15</v>
-      </c>
-      <c r="H46">
-        <v>25</v>
-      </c>
-      <c r="I46">
-        <v>-10</v>
       </c>
       <c r="J46" t="s">
         <v>105</v>
@@ -3809,31 +6803,31 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
         <v>96</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G47">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H47">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I47">
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
         <v>105</v>
@@ -3850,13 +6844,13 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
         <v>96</v>
@@ -3868,13 +6862,13 @@
         <v>65</v>
       </c>
       <c r="G48">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H48">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I48">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="J48" t="s">
         <v>105</v>
@@ -3891,31 +6885,31 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
         <v>96</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G49">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H49">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I49">
-        <v>-15</v>
+        <v>-25</v>
       </c>
       <c r="J49" t="s">
         <v>105</v>
@@ -3932,31 +6926,31 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D50" t="s">
         <v>96</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G50">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H50">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I50">
-        <v>-17</v>
+        <v>-23</v>
       </c>
       <c r="J50" t="s">
         <v>105</v>
@@ -3973,31 +6967,31 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
         <v>96</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="G51">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H51">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I51">
-        <v>-18</v>
+        <v>19</v>
       </c>
       <c r="J51" t="s">
         <v>105</v>
@@ -4014,13 +7008,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
         <v>96</v>
@@ -4029,16 +7023,16 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G52">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H52">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I52">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="J52" t="s">
         <v>105</v>
@@ -4055,31 +7049,31 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
         <v>96</v>
       </c>
       <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53">
+        <v>24</v>
+      </c>
+      <c r="H53">
+        <v>24</v>
+      </c>
+      <c r="I53">
         <v>0</v>
-      </c>
-      <c r="F53" t="s">
-        <v>78</v>
-      </c>
-      <c r="G53">
-        <v>11</v>
-      </c>
-      <c r="H53">
-        <v>30</v>
-      </c>
-      <c r="I53">
-        <v>-19</v>
       </c>
       <c r="J53" t="s">
         <v>105</v>
@@ -4096,31 +7090,31 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
         <v>96</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="G54">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H54">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I54">
-        <v>-19</v>
+        <v>6</v>
       </c>
       <c r="J54" t="s">
         <v>105</v>
@@ -4137,31 +7131,31 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
         <v>96</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H55">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I55">
-        <v>-19</v>
+        <v>7</v>
       </c>
       <c r="J55" t="s">
         <v>105</v>
@@ -4178,31 +7172,31 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="G56">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H56">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I56">
-        <v>-23</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
         <v>105</v>
@@ -4219,13 +7213,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
         <v>96</v>
@@ -4237,13 +7231,13 @@
         <v>78</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H57">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I57">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="J57" t="s">
         <v>105</v>
@@ -4260,31 +7254,31 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
         <v>96</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H58">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I58">
-        <v>-26</v>
+        <v>-5</v>
       </c>
       <c r="J58" t="s">
         <v>105</v>
@@ -4302,7 +7296,7 @@
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{A4007899-713B-4950-A6D9-849ADCEAE4AF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M58">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4310,12 +7304,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9C831F-2E66-49F7-BE32-8385DDF2C2EA}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4356,19 +7350,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1">
-        <v>33326</v>
+        <v>37414</v>
       </c>
       <c r="F2" s="1">
         <v>43750</v>
@@ -4382,19 +7376,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1">
-        <v>36325</v>
+        <v>36161</v>
       </c>
       <c r="F3" s="1">
         <v>43750</v>
@@ -4408,19 +7402,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>96</v>
       </c>
       <c r="E4" s="1">
-        <v>33010</v>
+        <v>35639</v>
       </c>
       <c r="F4" s="1">
         <v>43750</v>
@@ -4434,19 +7428,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1">
-        <v>36350</v>
+        <v>37371</v>
       </c>
       <c r="F5" s="1">
         <v>43750</v>
@@ -4460,19 +7454,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>96</v>
       </c>
       <c r="E6" s="1">
-        <v>34628</v>
+        <v>26604</v>
       </c>
       <c r="F6" s="1">
         <v>43750</v>
@@ -4486,19 +7480,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1">
-        <v>37444</v>
+        <v>36994</v>
       </c>
       <c r="F7" s="1">
         <v>43750</v>
@@ -4512,19 +7506,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="1">
-        <v>33018</v>
+        <v>36617</v>
       </c>
       <c r="F8" s="1">
         <v>43750</v>
@@ -4538,19 +7532,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="1">
-        <v>36590</v>
+        <v>37189</v>
       </c>
       <c r="F9" s="1">
         <v>43750</v>
@@ -4564,19 +7558,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>96</v>
       </c>
       <c r="E10" s="1">
-        <v>34911</v>
+        <v>37903</v>
       </c>
       <c r="F10" s="1">
         <v>43750</v>
@@ -4590,19 +7584,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>96</v>
       </c>
       <c r="E11" s="1">
-        <v>37934</v>
+        <v>32455</v>
       </c>
       <c r="F11" s="1">
         <v>43750</v>
@@ -4616,19 +7610,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="1">
-        <v>36617</v>
+        <v>33010</v>
       </c>
       <c r="F12" s="1">
         <v>43750</v>
@@ -4642,19 +7636,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1">
-        <v>37177</v>
+        <v>37342</v>
       </c>
       <c r="F13" s="1">
         <v>43750</v>
@@ -4668,19 +7662,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
       </c>
       <c r="E14" s="1">
-        <v>36310</v>
+        <v>33420</v>
       </c>
       <c r="F14" s="1">
         <v>43750</v>
@@ -4694,19 +7688,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E15" s="1">
-        <v>37189</v>
+        <v>37384</v>
       </c>
       <c r="F15" s="1">
         <v>43750</v>
@@ -4720,19 +7714,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E16" s="1">
-        <v>37384</v>
+        <v>33437</v>
       </c>
       <c r="F16" s="1">
         <v>43750</v>
@@ -4746,19 +7740,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="1">
-        <v>36994</v>
+        <v>35888</v>
       </c>
       <c r="F17" s="1">
         <v>43750</v>
@@ -4772,10 +7766,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -4784,7 +7778,7 @@
         <v>96</v>
       </c>
       <c r="E18" s="1">
-        <v>37371</v>
+        <v>34858</v>
       </c>
       <c r="F18" s="1">
         <v>43750</v>
@@ -4798,19 +7792,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E19" s="1">
-        <v>36319</v>
+        <v>37260</v>
       </c>
       <c r="F19" s="1">
         <v>43750</v>
@@ -4824,19 +7818,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>96</v>
       </c>
       <c r="E20" s="1">
-        <v>37414</v>
+        <v>37934</v>
       </c>
       <c r="F20" s="1">
         <v>43750</v>
@@ -4850,10 +7844,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -4862,7 +7856,7 @@
         <v>96</v>
       </c>
       <c r="E21" s="1">
-        <v>36945</v>
+        <v>35537</v>
       </c>
       <c r="F21" s="1">
         <v>43750</v>
@@ -4876,19 +7870,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>96</v>
       </c>
       <c r="E22" s="1">
-        <v>36380</v>
+        <v>34628</v>
       </c>
       <c r="F22" s="1">
         <v>43750</v>
@@ -4902,19 +7896,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E23" s="1">
-        <v>35707</v>
+        <v>37177</v>
       </c>
       <c r="F23" s="1">
         <v>43750</v>
@@ -4928,19 +7922,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
         <v>96</v>
       </c>
       <c r="E24" s="1">
-        <v>40848</v>
+        <v>36590</v>
       </c>
       <c r="F24" s="1">
         <v>43750</v>
@@ -4954,19 +7948,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
       </c>
       <c r="E25" s="1">
-        <v>37903</v>
+        <v>36590</v>
       </c>
       <c r="F25" s="1">
         <v>43750</v>
@@ -4980,19 +7974,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
       </c>
       <c r="E26" s="1">
-        <v>36590</v>
+        <v>35863</v>
       </c>
       <c r="F26" s="1">
         <v>43750</v>
@@ -5006,19 +8000,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E27" s="1">
-        <v>36887</v>
+        <v>36889</v>
       </c>
       <c r="F27" s="1">
         <v>43750</v>
@@ -5032,10 +8026,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -5044,7 +8038,7 @@
         <v>96</v>
       </c>
       <c r="E28" s="1">
-        <v>36889</v>
+        <v>26851</v>
       </c>
       <c r="F28" s="1">
         <v>43750</v>
@@ -5058,19 +8052,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E29" s="1">
-        <v>35537</v>
+        <v>36887</v>
       </c>
       <c r="F29" s="1">
         <v>43750</v>
@@ -5084,19 +8078,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
       </c>
       <c r="E30" s="1">
-        <v>37171</v>
+        <v>35681</v>
       </c>
       <c r="F30" s="1">
         <v>43750</v>
@@ -5110,19 +8104,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
         <v>96</v>
       </c>
       <c r="E31" s="1">
-        <v>37862</v>
+        <v>36091</v>
       </c>
       <c r="F31" s="1">
         <v>43750</v>
@@ -5136,19 +8130,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="1">
-        <v>33437</v>
+        <v>37200</v>
       </c>
       <c r="F32" s="1">
         <v>43750</v>
@@ -5162,19 +8156,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E33" s="1">
-        <v>37260</v>
+        <v>36350</v>
       </c>
       <c r="F33" s="1">
         <v>43750</v>
@@ -5188,19 +8182,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" s="1">
-        <v>36566</v>
+        <v>36404</v>
       </c>
       <c r="F34" s="1">
         <v>43750</v>
@@ -5214,19 +8208,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E35" s="1">
-        <v>36161</v>
+        <v>38167</v>
       </c>
       <c r="F35" s="1">
         <v>43750</v>
@@ -5240,19 +8234,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E36" s="1">
-        <v>37285</v>
+        <v>36130</v>
       </c>
       <c r="F36" s="1">
         <v>43750</v>
@@ -5266,19 +8260,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
         <v>96</v>
       </c>
       <c r="E37" s="1">
-        <v>36091</v>
+        <v>37862</v>
       </c>
       <c r="F37" s="1">
         <v>43750</v>
@@ -5292,19 +8286,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
         <v>96</v>
       </c>
       <c r="E38" s="1">
-        <v>34858</v>
+        <v>37401</v>
       </c>
       <c r="F38" s="1">
         <v>43750</v>
@@ -5318,19 +8312,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="1">
-        <v>36130</v>
+        <v>40848</v>
       </c>
       <c r="F39" s="1">
         <v>43750</v>
@@ -5344,19 +8338,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
         <v>96</v>
       </c>
       <c r="E40" s="1">
-        <v>37401</v>
+        <v>33018</v>
       </c>
       <c r="F40" s="1">
         <v>43750</v>
@@ -5370,19 +8364,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E41" s="1">
-        <v>35639</v>
+        <v>33326</v>
       </c>
       <c r="F41" s="1">
         <v>43750</v>
@@ -5396,19 +8390,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E42" s="1">
-        <v>26604</v>
+        <v>36319</v>
       </c>
       <c r="F42" s="1">
         <v>43750</v>
@@ -5422,19 +8416,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
         <v>96</v>
       </c>
       <c r="E43" s="1">
-        <v>38143</v>
+        <v>36310</v>
       </c>
       <c r="F43" s="1">
         <v>43750</v>
@@ -5448,19 +8442,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
         <v>96</v>
       </c>
       <c r="E44" s="1">
-        <v>32455</v>
+        <v>37444</v>
       </c>
       <c r="F44" s="1">
         <v>43750</v>
@@ -5474,19 +8468,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E45" s="1">
-        <v>33420</v>
+        <v>36566</v>
       </c>
       <c r="F45" s="1">
         <v>43750</v>
@@ -5500,19 +8494,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
         <v>96</v>
       </c>
       <c r="E46" s="1">
-        <v>37597</v>
+        <v>36325</v>
       </c>
       <c r="F46" s="1">
         <v>43750</v>
@@ -5526,19 +8520,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
         <v>96</v>
       </c>
       <c r="E47" s="1">
-        <v>38208</v>
+        <v>36380</v>
       </c>
       <c r="F47" s="1">
         <v>43750</v>
@@ -5552,19 +8546,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
         <v>96</v>
       </c>
       <c r="E48" s="1">
-        <v>36404</v>
+        <v>37597</v>
       </c>
       <c r="F48" s="1">
         <v>43750</v>
@@ -5578,19 +8572,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
         <v>96</v>
       </c>
       <c r="E49" s="1">
-        <v>35681</v>
+        <v>37575</v>
       </c>
       <c r="F49" s="1">
         <v>43750</v>
@@ -5604,19 +8598,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D50" t="s">
         <v>96</v>
       </c>
       <c r="E50" s="1">
-        <v>37200</v>
+        <v>36101</v>
       </c>
       <c r="F50" s="1">
         <v>43750</v>
@@ -5630,19 +8624,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
         <v>96</v>
       </c>
       <c r="E51" s="1">
-        <v>26851</v>
+        <v>34911</v>
       </c>
       <c r="F51" s="1">
         <v>43750</v>
@@ -5656,19 +8650,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
         <v>96</v>
       </c>
       <c r="E52" s="1">
-        <v>35863</v>
+        <v>38208</v>
       </c>
       <c r="F52" s="1">
         <v>43750</v>
@@ -5682,19 +8676,19 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
         <v>96</v>
       </c>
       <c r="E53" s="1">
-        <v>37342</v>
+        <v>35707</v>
       </c>
       <c r="F53" s="1">
         <v>43750</v>
@@ -5708,19 +8702,19 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
         <v>96</v>
       </c>
       <c r="E54" s="1">
-        <v>33330</v>
+        <v>36945</v>
       </c>
       <c r="F54" s="1">
         <v>43750</v>
@@ -5734,19 +8728,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
         <v>96</v>
       </c>
       <c r="E55" s="1">
-        <v>38167</v>
+        <v>37171</v>
       </c>
       <c r="F55" s="1">
         <v>43750</v>
@@ -5760,19 +8754,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E56" s="1">
-        <v>36101</v>
+        <v>37285</v>
       </c>
       <c r="F56" s="1">
         <v>43750</v>
@@ -5786,19 +8780,19 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="1">
-        <v>37575</v>
+        <v>33330</v>
       </c>
       <c r="F57" s="1">
         <v>43750</v>
@@ -5812,19 +8806,19 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
         <v>96</v>
       </c>
       <c r="E58" s="1">
-        <v>35888</v>
+        <v>38143</v>
       </c>
       <c r="F58" s="1">
         <v>43750</v>
@@ -5839,7 +8833,7 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{AA9C831F-2E66-49F7-BE32-8385DDF2C2EA}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H58">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5847,7 +8841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222AA13F-0325-4F03-B6E5-7994B0DEA27D}">
   <dimension ref="A1:K352"/>
   <sheetViews>
@@ -18161,7 +21155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507DB16C-5E02-4240-966B-CD5B9BC206E2}">
   <dimension ref="A1:K170"/>
   <sheetViews>
